--- a/examples/example_data_test.xlsx
+++ b/examples/example_data_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>T_ig</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>FuelLoadDensity</t>
-  </si>
-  <si>
-    <t>TimetoFlashover</t>
   </si>
 </sst>
 </file>
@@ -49,12 +46,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -64,11 +61,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFf2cfee"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFe97132"/>
       </patternFill>
     </fill>
   </fills>
@@ -99,7 +91,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -108,9 +100,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -427,25 +416,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="39.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="69" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -457,348 +445,294 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
+      <c r="A2" s="4">
         <v>505</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>4.024</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>9.2</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>10</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>34.2</v>
       </c>
-      <c r="F2" s="5">
-        <v>1113</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75">
+      <c r="A3" s="4">
         <v>515</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>0.549</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>6.4</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>4.8</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>2.2</v>
       </c>
-      <c r="F3" s="5">
-        <v>666</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
+      <c r="A4" s="4">
         <v>250</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>0.199</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>18.9</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>5.5</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>30.8</v>
       </c>
-      <c r="F4" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75">
+      <c r="A5" s="4">
         <v>275</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>1.983</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>27.8</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>4</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>38.7</v>
       </c>
-      <c r="F5" s="5">
-        <v>96</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
+      <c r="A6" s="4">
         <v>195</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>2.957</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>24.1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>1.6</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>89.5</v>
       </c>
-      <c r="F6" s="5">
-        <v>141</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.75">
+      <c r="A7" s="4">
         <v>415</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>1.306</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>9.9</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>10.4</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>16.1</v>
       </c>
-      <c r="F7" s="5">
-        <v>730</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21.75">
+      <c r="A8" s="4">
         <v>495</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>1.472</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>19.5</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>3.3</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>58.1</v>
       </c>
-      <c r="F8" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21.75">
+      <c r="A9" s="4">
         <v>330</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>0.53</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>16.3</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>17.5</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>68.2</v>
       </c>
-      <c r="F9" s="5">
-        <v>104</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21.75">
+      <c r="A10" s="4">
         <v>480</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>0.105</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>11.2</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>9.3</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>51.8</v>
       </c>
-      <c r="F10" s="5">
-        <v>631</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21.75">
+      <c r="A11" s="4">
         <v>290</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>0.633</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>11.9</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>7.3</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>64.6</v>
       </c>
-      <c r="F11" s="5">
-        <v>138</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21.75">
+      <c r="A12" s="4">
         <v>295</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>1.594</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>27.5</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>7.3</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>33.9</v>
       </c>
-      <c r="F12" s="5">
-        <v>84</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21.75">
+      <c r="A13" s="4">
         <v>490</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>0.557</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>26.9</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>12.7</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>25.5</v>
       </c>
-      <c r="F13" s="5">
-        <v>107</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21.75">
+      <c r="A14" s="4">
         <v>386</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>0.97</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>7.5</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>3.1</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>9.5</v>
       </c>
-      <c r="F14" s="5">
-        <v>2000</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21.75">
+      <c r="A15" s="4">
         <v>354</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>0.11</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>11</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>9.2</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>1.7</v>
       </c>
-      <c r="F15" s="5">
-        <v>625</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21.75">
+      <c r="A16" s="4">
         <v>482</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>0.29</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>3.9</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>1.4</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>5.5</v>
       </c>
-      <c r="F16" s="5">
-        <v>2000</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21.75">
+      <c r="A17" s="4">
         <v>392</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>0.99</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>11.9</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>6.2</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>75.5</v>
       </c>
-      <c r="F17" s="5">
-        <v>650</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="22.5">
+      <c r="A18" s="4">
         <v>391</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>0.69</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>6.5</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>3.3</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>11</v>
-      </c>
-      <c r="F18" s="5">
-        <v>2000</v>
       </c>
     </row>
   </sheetData>
